--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3911.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3911.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.624166252895529</v>
+        <v>2.724031686782837</v>
       </c>
       <c r="B1">
-        <v>2.146511454354382</v>
+        <v>2.392427444458008</v>
       </c>
       <c r="C1">
-        <v>3.407691011589421</v>
+        <v>2.644598245620728</v>
       </c>
       <c r="D1">
-        <v>7.610723350489502</v>
+        <v>3.306588888168335</v>
       </c>
       <c r="E1">
-        <v>0.8046421608439461</v>
+        <v>2.942408084869385</v>
       </c>
     </row>
   </sheetData>
